--- a/Assets/AssetsPack/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/AssetsPack/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/unity-excel-importer-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/AssetsPack/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0456699-5F56-5144-8ECD-DA3DD64048F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E358CBAC-F23E-3A40-844D-58F9A8BBFF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1180" windowWidth="19820" windowHeight="15740" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="33560" yWindow="3520" windowWidth="19820" windowHeight="15740" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -950,10 +950,10 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>-11.25</v>
+        <v>-12.332000000000001</v>
       </c>
       <c r="D13">
-        <v>9.8699999999999992</v>
+        <v>9.2590000000000003</v>
       </c>
       <c r="E13">
         <v>-9.51</v>

--- a/Assets/AssetsPack/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/AssetsPack/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/AssetsPack/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E358CBAC-F23E-3A40-844D-58F9A8BBFF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CD4D77-A5E4-3446-92F3-35E13108CBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33560" yWindow="3520" windowWidth="19820" windowHeight="15740" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="1600" yWindow="5860" windowWidth="21340" windowHeight="15740" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I1" sqref="I1:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/Assets/AssetsPack/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/AssetsPack/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/AssetsPack/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CD4D77-A5E4-3446-92F3-35E13108CBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71AEB97-9F57-344D-A905-C3AA5AECF8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="5860" windowWidth="21340" windowHeight="15740" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="1600" yWindow="3900" windowWidth="21340" windowHeight="15740" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I22"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -953,7 +953,7 @@
         <v>-12.332000000000001</v>
       </c>
       <c r="D13">
-        <v>9.2590000000000003</v>
+        <v>10.17</v>
       </c>
       <c r="E13">
         <v>-9.51</v>

--- a/Assets/AssetsPack/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/AssetsPack/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/AssetsPack/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71AEB97-9F57-344D-A905-C3AA5AECF8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B4D38C-B59E-0B48-BB02-27BA45A012B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="3900" windowWidth="21340" windowHeight="15740" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="3700" yWindow="760" windowWidth="24480" windowHeight="18140" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>買い物カゴ方向(4方向)</t>
     <rPh sb="0" eb="1">
@@ -232,6 +232,380 @@
   </si>
   <si>
     <t>スライダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FirstHint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SecondHint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値段を入力するのだろう．下にあるカゴの中身と関係がありそうだな．</t>
+    <rPh sb="0" eb="2">
+      <t>ネダn</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シタニ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下にあるカゴの中身の合計金額を入力してみよう．各商品の値段は，この部屋のどこかに書いてあるはずだ．</t>
+    <rPh sb="0" eb="1">
+      <t>シタニ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>📝</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウヒn</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ネダn</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青い円は，きっと時計を表しているのだろう．となると，この線は短針だろうな．\n青い円の左下にも何か見えるな．</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アオイ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エンハ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アラワセィ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タンシn</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>エンノ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫眼鏡で左下を拡大してみよう．時計の向きにも気をつけて，青い円と赤い円を重ね合わせれば，1つの時刻が出てくるはずだ．</t>
+    <rPh sb="0" eb="3">
+      <t>ムシメ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アオイエンテ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>エンヲ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カサネ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>デテクル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どこかに，画面に写っている単語が書いてある紙がなかったか？あとは，押す順番さえわかれば解けそうだ．まだ使っていない紙を使えば，順番がわかるだろう．</t>
+    <rPh sb="5" eb="7">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウツッテ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カミガ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">オス </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジュンバn</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>カミモ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジュンバn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語が並んだ紙と，矢印の紙を重ねれば，どの順番でボタンを押せばいいか分かるな．気をつけたいのは，「恋」ボタンが6番目ということだ．</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">カミ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヤジルシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カサネ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t xml:space="preserve">ワカルナ． </t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キヲツケ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t xml:space="preserve">コイ </t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上下左右にレバーを倒すことができる．おそらく，倒す順番が分かるものがこの部屋にあるのだろう．</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タオス</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タオスジュンバン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">ワカルモノガ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印がいくつも並んだ紙があったはずだ．この順番にレバーを倒してみよう．</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルセィ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナランダク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別の場所に，青い円と赤い円があったよな．それを重ね合わせるってことか...？</t>
+    <rPh sb="0" eb="1">
+      <t>ベツノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カサネアワセルッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青い円の短針と，赤い円の長針で1つの時刻が分かる．それを入力してみよう．赤い円は左右反転しているから，長針が指す数字を間違えないようにしないとな．</t>
+    <rPh sb="0" eb="1">
+      <t>アカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ムキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エンノ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タンシn</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アカイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>エンノ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウセィ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アカイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ハンテn</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>チョウセィ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>サススウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>マチガエニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このハートは何を表しているんだろうな...　感情とかか？</t>
+    <rPh sb="6" eb="7">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アラワセィ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そういえば，顔が描かれた紙があったよな．怒っている顔は，割れているハート．笑顔が，真っピンクのハートと対応していそうだな．</t>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコッテ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ワレ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>エガオ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>マッピンク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本は固定されてないから，動かすことはできるな．</t>
+    <rPh sb="0" eb="1">
+      <t>ホンヘ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウゴカスコテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この本の背表紙と同じ色・マークが書かれた紙があったよな．この通りに本を並び替えてみよう．</t>
+    <rPh sb="4" eb="7">
+      <t>セビョウセィ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オナジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナラビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShowFirstHintNeedItemId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShowSecondHintNeedItemId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棚の中にあった6冊の本が関係しているんだろうな．それらの本の高さをスライダーに入力してみよう．</t>
+    <rPh sb="0" eb="1">
+      <t>タナノ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サテゥ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンケイシテ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タカサ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライダーは6段階まで動かせるな．かつ，スライダーが6つある．この部屋の中に6つ並んでるものがあれば，それとこの謎が関係ありそうだな．</t>
+    <rPh sb="7" eb="9">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴカセ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナランデ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -616,21 +990,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D4725-0D46-D849-9D5B-AD7D703D2CC9}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -655,8 +1032,20 @@
       <c r="H1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0</v>
       </c>
@@ -681,8 +1070,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="K2">
+        <v>-100</v>
+      </c>
+      <c r="L2">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -707,8 +1102,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="K3">
+        <v>-100</v>
+      </c>
+      <c r="L3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -733,8 +1134,20 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4">
+        <v>-100</v>
+      </c>
+      <c r="L4">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -759,8 +1172,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="K5">
+        <v>-100</v>
+      </c>
+      <c r="L5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -785,8 +1204,20 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>-100</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -811,8 +1242,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="K7">
+        <v>-100</v>
+      </c>
+      <c r="L7">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -837,8 +1274,20 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -863,8 +1312,14 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="K9">
+        <v>-100</v>
+      </c>
+      <c r="L9">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -889,8 +1344,14 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="K10">
+        <v>-100</v>
+      </c>
+      <c r="L10">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>9</v>
       </c>
@@ -915,8 +1376,14 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="K11">
+        <v>-100</v>
+      </c>
+      <c r="L11">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -941,8 +1408,14 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="K12">
+        <v>-100</v>
+      </c>
+      <c r="L12">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>11</v>
       </c>
@@ -967,8 +1440,20 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>-100</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>12</v>
       </c>
@@ -993,8 +1478,20 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <v>-100</v>
+      </c>
+      <c r="L14">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1019,8 +1516,14 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="K15">
+        <v>-100</v>
+      </c>
+      <c r="L15">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1045,8 +1548,20 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <v>-100</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1071,8 +1586,14 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="K17">
+        <v>-100</v>
+      </c>
+      <c r="L17">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1097,8 +1618,14 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="K18">
+        <v>-100</v>
+      </c>
+      <c r="L18">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1123,8 +1650,14 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="K19">
+        <v>-100</v>
+      </c>
+      <c r="L19">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1149,8 +1682,20 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>-100</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1175,8 +1720,14 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="K21">
+        <v>-100</v>
+      </c>
+      <c r="L21">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1200,6 +1751,18 @@
       </c>
       <c r="H22">
         <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>-100</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/AssetsPack/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/AssetsPack/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/AssetsPack/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B4D38C-B59E-0B48-BB02-27BA45A012B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335636C1-47BF-904D-AE1F-9B12607EF08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="760" windowWidth="24480" windowHeight="18140" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="5760" yWindow="1500" windowWidth="24480" windowHeight="18140" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -312,40 +312,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>虫眼鏡で左下を拡大してみよう．時計の向きにも気をつけて，青い円と赤い円を重ね合わせれば，1つの時刻が出てくるはずだ．</t>
-    <rPh sb="0" eb="3">
-      <t>ムシメ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクダイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トケイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>アオイエンテ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>エンヲ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カサネ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>デテクル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>どこかに，画面に写っている単語が書いてある紙がなかったか？あとは，押す順番さえわかれば解けそうだ．まだ使っていない紙を使えば，順番がわかるだろう．</t>
     <rPh sb="5" eb="7">
       <t>ガメn</t>
@@ -431,22 +397,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>別の場所に，青い円と赤い円があったよな．それを重ね合わせるってことか...？</t>
-    <rPh sb="0" eb="1">
-      <t>ベツノ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カサネアワセルッテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>青い円の短針と，赤い円の長針で1つの時刻が分かる．それを入力してみよう．赤い円は左右反転しているから，長針が指す数字を間違えないようにしないとな．</t>
     <rPh sb="0" eb="1">
       <t>アカイ</t>
@@ -574,28 +524,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>棚の中にあった6冊の本が関係しているんだろうな．それらの本の高さをスライダーに入力してみよう．</t>
-    <rPh sb="0" eb="1">
-      <t>タナノ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サテゥ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンケイシテ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ホn</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>タカサ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スライダーは6段階まで動かせるな．かつ，スライダーが6つある．この部屋の中に6つ並んでるものがあれば，それとこの謎が関係ありそうだな．</t>
     <rPh sb="7" eb="9">
       <t>ダンカイ</t>
@@ -605,6 +533,93 @@
     </rPh>
     <rPh sb="40" eb="41">
       <t>ナランデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫眼鏡で左下を拡大してみよう．時計の向きにも気をつけて，青い円と赤い円を重ね合わせれば，ある時刻が出てくるはずだ．</t>
+    <rPh sb="0" eb="3">
+      <t>ムシメ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アオイエンテ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>エンヲ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カサネ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>デテクル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別の場所に，青い円と赤い円があったよな．それらを重ね合わせるってことか...？夜のアイコンがあるから，入力するのは夜か深夜の時刻だな．</t>
+    <rPh sb="0" eb="1">
+      <t>ベツノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カサネアワセルッテ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニュウリョクス</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シンヤ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棚の中にあった6冊の本が関係しているんだろうな．あれらの本の高さをスライダーに入力してみよう．</t>
+    <rPh sb="0" eb="1">
+      <t>タナノ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サテゥ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンケイシテ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タカサ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -993,7 +1008,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1039,10 +1054,10 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1208,7 +1223,7 @@
         <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>-100</v>
@@ -1275,10 +1290,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
         <v>35</v>
-      </c>
-      <c r="J8" t="s">
-        <v>36</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -1441,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
         <v>37</v>
-      </c>
-      <c r="J13" t="s">
-        <v>38</v>
       </c>
       <c r="K13">
         <v>-100</v>
@@ -1479,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K14">
         <v>-100</v>
@@ -1549,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K16">
         <v>-100</v>
@@ -1683,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K20">
         <v>-100</v>
@@ -1753,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
         <v>48</v>
-      </c>
-      <c r="J22" t="s">
-        <v>47</v>
       </c>
       <c r="K22">
         <v>-100</v>
